--- a/説明＆設計ドキュメント.xlsx
+++ b/説明＆設計ドキュメント.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18551" windowHeight="9827" activeTab="1"/>
+    <workbookView windowWidth="22451" windowHeight="9827"/>
   </bookViews>
   <sheets>
     <sheet name="使い方" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
   <si>
     <t>アーキテクチャ：</t>
+  </si>
+  <si>
+    <t>ソフトウェア構成：</t>
   </si>
 </sst>
 </file>
@@ -26,9 +29,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -39,6 +42,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -46,8 +64,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,16 +81,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -80,29 +100,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,11 +126,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,9 +163,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,24 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,25 +203,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,157 +371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,11 +397,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -405,8 +415,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,6 +438,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -435,32 +456,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,166 +480,171 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -979,20 +984,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>https://nodejs-express-test-foruhuru.herokuapp.com/users/addUser</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>E</a:t>
+            <a:t>https://nodejs-express-test-foruhuru.herokuapp.com/users/addUserMiddle</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
@@ -1193,13 +1190,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>61595</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1209,7 +1206,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="480060" y="579120"/>
+          <a:off x="480060" y="777240"/>
           <a:ext cx="2796540" cy="1494155"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1278,13 +1275,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>76835</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1294,7 +1291,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4450080" y="594360"/>
+          <a:off x="4450080" y="792480"/>
           <a:ext cx="2796540" cy="1494155"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1462,13 +1459,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>17780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>427355</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1478,7 +1475,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8122920" y="932180"/>
+          <a:off x="8122920" y="1130300"/>
           <a:ext cx="2058035" cy="831850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1638,13 +1635,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1654,7 +1651,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3276600" y="998220"/>
+          <a:off x="3276600" y="1196340"/>
           <a:ext cx="1181100" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1688,7 +1685,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="424180" cy="273685"/>
@@ -1699,7 +1696,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3505200" y="708660"/>
+          <a:off x="3505200" y="906780"/>
           <a:ext cx="424180" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1740,13 +1737,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1756,7 +1753,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3284220" y="1722120"/>
+          <a:off x="3284220" y="1920240"/>
           <a:ext cx="1173480" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1790,7 +1787,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="474345" cy="273685"/>
@@ -1801,7 +1798,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3680460" y="1386840"/>
+          <a:off x="3680460" y="1584960"/>
           <a:ext cx="474345" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1941,13 +1938,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>55245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>61595</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1960,7 +1957,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7246620" y="1335405"/>
+          <a:off x="7246620" y="1533525"/>
           <a:ext cx="876300" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1986,6 +1983,302 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182880" y="388620"/>
+          <a:ext cx="10759440" cy="2065655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Heroku</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2377440" y="3421380"/>
+          <a:ext cx="4434840" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GitHub</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4594860" y="2461260"/>
+          <a:ext cx="7620" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="724535" cy="323850"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキストボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4655820" y="2903220"/>
+          <a:ext cx="724535" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Tavis CI</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>351155</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図形 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4968240"/>
+          <a:ext cx="4008755" cy="5365115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2251,8 +2544,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2266,17 +2559,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="15.6" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/説明＆設計ドキュメント.xlsx
+++ b/説明＆設計ドキュメント.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22451" windowHeight="9827"/>
+    <workbookView windowWidth="22451" windowHeight="9827" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使い方" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>アーキテクチャ：</t>
   </si>
   <si>
     <t>ソフトウェア構成：</t>
+  </si>
+  <si>
+    <t>TEST:</t>
+  </si>
+  <si>
+    <t>./test/userDao.test.js</t>
+  </si>
+  <si>
+    <t>テストケースがどこか間違いました、原因がさがしています。〆切なので、一旦提出します。</t>
+  </si>
+  <si>
+    <t>明日からまた原因を探します。</t>
+  </si>
+  <si>
+    <t>以上。</t>
   </si>
 </sst>
 </file>
@@ -33,7 +48,7 @@
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,8 +65,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -66,40 +104,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,7 +150,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,65 +210,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -203,19 +226,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,31 +376,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,127 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,6 +417,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -408,15 +440,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,17 +461,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -458,9 +470,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +490,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,7 +523,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -509,142 +532,143 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2544,7 +2568,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2559,13 +2583,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="15.6" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -2577,6 +2601,31 @@
         <v>1</v>
       </c>
     </row>
+    <row r="59" ht="18" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
